--- a/Supplementary_Tables.xlsx
+++ b/Supplementary_Tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds728\OneDrive - MRC Cancer Unit at University of Cambridge\Papers\BMA_targetfunction_library\Presubmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ds728\OneDrive - MRC Cancer Unit at University of Cambridge\Papers\BMA_targetfunction_library\Presubmission\MSB_TFlibrary_supplementary_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="219">
   <si>
     <t>Conclusion</t>
   </si>
@@ -551,9 +551,6 @@
     <t>In C:</t>
   </si>
   <si>
-    <t>PerfectAdaptation_a</t>
-  </si>
-  <si>
     <t>Initial peak at input value, before decent to 0</t>
   </si>
   <si>
@@ -563,15 +560,9 @@
     <t>Works for any granularity</t>
   </si>
   <si>
-    <t>4_Perfect_Adaptation.json</t>
-  </si>
-  <si>
     <t>PerfectAdaptation_b</t>
   </si>
   <si>
-    <t>(4*var(A_b))-(4*var(B_b))</t>
-  </si>
-  <si>
     <t>4s can be changed to influence height (if you want only half activation for example, change them to half of the maximal value)</t>
   </si>
   <si>
@@ -581,9 +572,6 @@
     <t>Positive Feedback</t>
   </si>
   <si>
-    <t>1) Mutual Activation</t>
-  </si>
-  <si>
     <t>MutualActivation</t>
   </si>
   <si>
@@ -602,9 +590,6 @@
     <t>Figure 1, F</t>
   </si>
   <si>
-    <t>2) Mutual Inhibition (Hysteresis)</t>
-  </si>
-  <si>
     <t>Two way toggle switch with two critical values to determine the switch points for down and up</t>
   </si>
   <si>
@@ -644,21 +629,12 @@
     <t>Homeostasis</t>
   </si>
   <si>
-    <t>Homeostatis</t>
-  </si>
-  <si>
     <t>Output where pertubations in I don’t change output (except a small initial rise/fall)</t>
   </si>
   <si>
-    <t>Granularity of B changed to double that of the rest of the system - possibly needs improvement</t>
-  </si>
-  <si>
     <t>7_Homeostasis_v1.json</t>
   </si>
   <si>
-    <t>var(I)-(floor(2/3*var(B)))+1</t>
-  </si>
-  <si>
     <t>In O:</t>
   </si>
   <si>
@@ -738,6 +714,63 @@
   </si>
   <si>
     <t>Mutual Inhibition</t>
+  </si>
+  <si>
+    <t>4*(var(A_b)-floor(var(B_b))</t>
+  </si>
+  <si>
+    <t>4_Perfect_Adaptation_a.json</t>
+  </si>
+  <si>
+    <t>PerfectAdaptation_a_ii</t>
+  </si>
+  <si>
+    <t>PerfectAdaptation_a_i</t>
+  </si>
+  <si>
+    <t>Peak before loss of signal, desensitisation occurs (successive signals give lower response)</t>
+  </si>
+  <si>
+    <t>(4-floor(var(B)+1/2))*(var(A)-floor(var(B)+1/2))</t>
+  </si>
+  <si>
+    <t>Granularity of node B increased</t>
+  </si>
+  <si>
+    <t>4_Perfect_Adaptation_b.json</t>
+  </si>
+  <si>
+    <t>4_Perfect_Adaptation_b_clock.json</t>
+  </si>
+  <si>
+    <t>4_Perfect_Adaptation_b</t>
+  </si>
+  <si>
+    <t>4_Perfect_Adaptation_b_clock</t>
+  </si>
+  <si>
+    <t>PerfectAdaptation_b_clock</t>
+  </si>
+  <si>
+    <t>2*(var(I)-1)-(floor(2/3*var(B)))+1</t>
+  </si>
+  <si>
+    <t>Granularity of B changed to double that of the rest of the system</t>
+  </si>
+  <si>
+    <t>Homeostasis_slow</t>
+  </si>
+  <si>
+    <t>Mutual Inhibition (Hysteresis)</t>
+  </si>
+  <si>
+    <t>Output where pertubations in I don’t alter O unless extreme, also shows no perturbation when alterations occur within the "normal" range</t>
+  </si>
+  <si>
+    <t>Granularity of B changed to double that of the rest of the system, new node T added with increased granularity - this dampens the oscillations in the network</t>
+  </si>
+  <si>
+    <t>7_Homeostasis_slow.json</t>
   </si>
 </sst>
 </file>
@@ -886,7 +919,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1047,6 +1080,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1111,7 +1164,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1171,9 +1224,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1194,6 +1244,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1314,7 +1370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1349,7 +1405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1558,1189 +1614,1322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="28" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.5703125" style="28" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="24" t="s">
+      <c r="F1" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="32" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="30" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="29" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="34"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="42" t="s">
         <v>110</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="F6" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="41" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="41"/>
+      <c r="B7" s="42" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="41" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="41"/>
+      <c r="B8" s="42" t="s">
         <v>119</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="41" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42" t="s">
         <v>123</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="41" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="34"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="41"/>
+      <c r="B12" s="42" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="41" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="41"/>
+      <c r="B13" s="42" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="41" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="41" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>143</v>
       </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="B18" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="E18" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="F18" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="42"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="B20" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="43" t="s">
+      <c r="C20" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="B21" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="43" t="s">
+      <c r="B23" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
+      <c r="C24" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="D24" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="D25" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="43" t="s">
+      <c r="E25" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="43" t="s">
+      <c r="F25" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="I26" s="27"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="33"/>
+      <c r="I27" s="27"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="D22" s="43" t="s">
+      <c r="E28" s="42"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="I28" s="27"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43" t="s">
+      <c r="D29" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="43" t="s">
+      <c r="H29" s="46"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F31" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="35" t="s">
+      <c r="D38" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F38" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="G38" s="41" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E39" s="42"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="34"/>
-    </row>
-    <row r="33" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="E40" s="42"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="42"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="E41" s="42"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="42"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="42"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="42"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="33"/>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43" t="s">
+      <c r="B48" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="C49" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="42"/>
+      <c r="F49" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="42" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="34"/>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" s="31" t="s">
+      <c r="E54" s="42"/>
+      <c r="F54" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="42" t="s">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="G39" s="42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43" t="s">
+      <c r="E55" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43" t="s">
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="34"/>
-    </row>
-    <row r="43" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
+      <c r="B57" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="C57" s="20"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43" t="s">
+      <c r="C58" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="D58" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="42"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D44" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="42" t="s">
+      <c r="E59" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="G44" s="42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="43" t="s">
+      <c r="F59" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="G59" s="41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="34"/>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="43"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G49" s="42" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="34"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="33"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="27"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="27"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="27"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
+      <c r="A77" s="27"/>
+      <c r="B77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
+      <c r="A78" s="27"/>
+      <c r="B78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
+      <c r="A79" s="27"/>
+      <c r="B79" s="27"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
+      <c r="A80" s="27"/>
+      <c r="B80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="D89" s="28"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="27"/>
+      <c r="D91" s="27"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="27"/>
+      <c r="D92" s="27"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
+      <c r="A93" s="27"/>
+      <c r="B93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="27"/>
+      <c r="D94" s="27"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
+      <c r="A95" s="27"/>
+      <c r="B95" s="27"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="27"/>
+      <c r="D98" s="27"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
+      <c r="A99" s="27"/>
+      <c r="B99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
-      <c r="B102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="27"/>
+      <c r="D103" s="27"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="27"/>
+      <c r="B104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="27"/>
+      <c r="B105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="27"/>
+      <c r="B106" s="27"/>
+      <c r="D106" s="27"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="27"/>
+      <c r="B107" s="27"/>
+      <c r="D107" s="27"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="27"/>
+      <c r="B108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="27"/>
+      <c r="B109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="27"/>
+      <c r="B112" s="27"/>
+      <c r="D112" s="27"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="27"/>
+      <c r="B113" s="27"/>
+      <c r="D113" s="27"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3583,16 +3772,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
